--- a/input/匯率表(完整).xlsx
+++ b/input/匯率表(完整).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t xml:space="preserve">幣別</t>
   </si>
@@ -193,15 +193,6 @@
     <t xml:space="preserve">埃塞俄比亞比爾</t>
   </si>
   <si>
-    <t xml:space="preserve">ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不支援</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以太幣</t>
-  </si>
-  <si>
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
@@ -400,21 +391,12 @@
     <t xml:space="preserve">摩洛哥迪拉姆</t>
   </si>
   <si>
-    <t xml:space="preserve">mBTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比特幣</t>
-  </si>
-  <si>
     <t xml:space="preserve">MDL</t>
   </si>
   <si>
     <t xml:space="preserve">摩爾多瓦列伊</t>
   </si>
   <si>
-    <t xml:space="preserve">mETH</t>
-  </si>
-  <si>
     <t xml:space="preserve">MMK</t>
   </si>
   <si>
@@ -637,15 +619,6 @@
     <t xml:space="preserve">烏克蘭格里夫納</t>
   </si>
   <si>
-    <t xml:space="preserve">uBTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比特聯儲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uETH</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD</t>
   </si>
   <si>
@@ -716,12 +689,6 @@
   </si>
   <si>
     <t xml:space="preserve">非洲財政共同體法郎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加密货币-XxXcoin</t>
   </si>
   <si>
     <t xml:space="preserve">ZAR</t>
@@ -830,13 +797,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -856,1368 +819,1297 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.548573</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>61.129323</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>18.677599</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.216665</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.000216</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.253789</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>13.932521</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.279457</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.207769</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1.02</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.774017</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.192431</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.000192</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.142487</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.000142</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>138.42154</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>615.07879</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>103.24766</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3.534779</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1.06313</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1.223579</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>8.160482</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>21.899182</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>7.81427</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="0" t="n">
+        <v>0.142907</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="0" t="n">
+        <v>0.000142</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>0.142907</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="0" t="n">
+        <v>0.849691</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>0.000142</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="0" t="n">
+        <v>0.123104</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0.849691</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="0" t="n">
+        <v>0.000123</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0.123104</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="0" t="n">
+        <v>0.439057</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>0.000123</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="0" t="n">
+        <v>1.197645</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>0.439057</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="0" t="n">
+        <v>1.172099</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>1.197645</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="0" t="n">
+        <v>0.001172</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>1.172099</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="0" t="n">
+        <v>3.682421</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>0.001172</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="0" t="n">
+        <v>1.075947</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>3.682421</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="0" t="n">
+        <v>56.294342</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>1.075947</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="0" t="n">
+        <v>2220.19</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>56.294342</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="0" t="n">
+        <v>2.220187</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>2220.19</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="0" t="n">
+        <v>2.37007</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>2.220187</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="0" t="n">
+        <v>0.517827</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>2.37007</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="0" t="n">
+        <v>11.783843</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>0.517827</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="0" t="n">
+        <v>0.011783</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>11.783843</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="0" t="n">
+        <v>6327.05</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>0.011783</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="0" t="n">
+        <v>19.937565</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>6327.05</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="0" t="n">
+        <v>20.408074</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>19.937565</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="0" t="n">
+        <v>0.020408</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>20.408074</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="0" t="n">
+        <v>573.862158</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>0.020408</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="0" t="n">
+        <v>17.600272</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>573.862158</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="0" t="n">
+        <v>11.876369</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>17.600272</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="0" t="n">
+        <v>607.46349</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="0" t="n">
-        <v>11.876369</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="0" t="n">
+        <v>193.92476</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>607.46349</v>
-      </c>
-      <c r="C55" s="1" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="0" t="n">
+        <v>0.193924</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>193.92476</v>
-      </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="0" t="n">
+        <v>69.938071</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>0.193924</v>
-      </c>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="0" t="n">
+        <v>2243.62</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="0" t="n">
-        <v>69.938071</v>
-      </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="0" t="n">
+        <v>53.399526</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="0" t="n">
-        <v>2243.62</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="0" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="0" t="n">
-        <v>53.399526</v>
-      </c>
-      <c r="C60" s="1" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="0" t="n">
+        <v>1.516604</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="0" t="n">
+        <v>2.878631</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <v>1.516604</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="0" t="n">
+        <v>278.50858</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="0" t="n">
+        <v>0.278508</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <v>2.878631</v>
-      </c>
-      <c r="C64" s="1" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="0" t="n">
+        <v>469.44309</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>131</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>278.50858</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>1.207489</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>133</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.278508</v>
-      </c>
-      <c r="C67" s="1" t="s">
+        <v>3.009723</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>135</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>469.44309</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>0.657893</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1.207489</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>0.000657</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>3.009723</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>62.009388</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.657893</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>5.372512</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.000657</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>0.28</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>62.009388</v>
-      </c>
-      <c r="C73" s="1" t="s">
+        <v>1.475468</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>147</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>5.372512</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>0.001475</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>149</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>18.871895</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>151</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1.475468</v>
-      </c>
-      <c r="C76" s="1" t="s">
+        <v>441.3</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>153</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.001475</v>
-      </c>
-      <c r="C77" s="1" t="s">
+        <v>0.240207</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>155</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>18.871895</v>
-      </c>
-      <c r="C78" s="1" t="s">
+        <v>0.00024</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>157</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>441.3</v>
-      </c>
-      <c r="C79" s="1" t="s">
+        <v>0.565156</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.240207</v>
-      </c>
-      <c r="C80" s="1" t="s">
+        <v>8.194038</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>161</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.00024</v>
-      </c>
-      <c r="C81" s="1" t="s">
+        <v>0.008194</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>163</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.565156</v>
-      </c>
-      <c r="C82" s="1" t="s">
+        <v>0.667466</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>8.194038</v>
-      </c>
-      <c r="C83" s="1" t="s">
+        <v>1030.84</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>167</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.008194</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>0.70635</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.667466</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <v>16.783678</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>171</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1030.84</v>
-      </c>
-      <c r="C86" s="1" t="s">
+        <v>7.927378</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>173</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.70635</v>
-      </c>
-      <c r="C87" s="1" t="s">
+        <v>42.857755</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>175</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>16.783678</v>
-      </c>
-      <c r="C88" s="1" t="s">
+        <v>0.560177</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>177</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>7.927378</v>
-      </c>
-      <c r="C89" s="1" t="s">
+        <v>1.527664</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>179</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>42.857755</v>
-      </c>
-      <c r="C90" s="1" t="s">
+        <v>0.001527</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>181</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.560177</v>
-      </c>
-      <c r="C91" s="1" t="s">
+        <v>0.207865</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>183</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1.527664</v>
-      </c>
-      <c r="C92" s="1" t="s">
+        <v>0.000207</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>185</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.001527</v>
-      </c>
-      <c r="C93" s="1" t="s">
+        <v>5.274598</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>187</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.207865</v>
-      </c>
-      <c r="C94" s="1" t="s">
+        <v>0.005274</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>189</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.000207</v>
-      </c>
-      <c r="C95" s="1" t="s">
+        <v>0.460023</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>191</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>5.274598</v>
-      </c>
-      <c r="C96" s="1" t="s">
+        <v>2.486155</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.005274</v>
-      </c>
-      <c r="C97" s="1" t="s">
+        <v>4.446885</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>195</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.460023</v>
-      </c>
-      <c r="C98" s="1" t="s">
+        <v>348.4043</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>197</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2.486155</v>
-      </c>
-      <c r="C99" s="1" t="s">
+        <v>4.411965</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>199</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>4.446885</v>
-      </c>
-      <c r="C100" s="1" t="s">
+        <v>0.14935</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>201</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>348.4043</v>
-      </c>
-      <c r="C101" s="1" t="s">
+        <v>0.000149</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>203</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>4.411965</v>
-      </c>
-      <c r="C102" s="1" t="s">
+        <v>0.154192</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" s="0" t="n">
+        <v>5.838131</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="B104" s="0" t="n">
+        <v>3.31089</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>208</v>
       </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>209</v>
+      </c>
       <c r="B105" s="0" t="n">
-        <v>0.14935</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+        <v>82215.93</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>210</v>
       </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>211</v>
+      </c>
       <c r="B106" s="0" t="n">
-        <v>0.000149</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+        <v>0.822159</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>212</v>
       </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>213</v>
+      </c>
       <c r="B107" s="0" t="n">
-        <v>0.154192</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+        <v>3478.5</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>214</v>
       </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>215</v>
+      </c>
       <c r="B108" s="0" t="n">
-        <v>5.838131</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+        <v>3.478495</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>3.31089</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="C109" s="0" t="s">
         <v>218</v>
       </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>219</v>
+      </c>
       <c r="B110" s="0" t="n">
-        <v>82215.93</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+        <v>93.760174</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>220</v>
       </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>221</v>
+      </c>
       <c r="B111" s="0" t="n">
-        <v>0.822159</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+        <v>93.778443</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>222</v>
       </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>223</v>
+      </c>
       <c r="B112" s="0" t="n">
-        <v>3478.5</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+        <v>2.430602</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>224</v>
       </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>225</v>
+      </c>
       <c r="B113" s="0" t="n">
-        <v>3.478495</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+        <v>0.00243</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>226</v>
       </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>227</v>
+      </c>
       <c r="B114" s="0" t="n">
-        <v>3.31089</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+        <v>2.577179</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>228</v>
       </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>229</v>
+      </c>
       <c r="B115" s="0" t="n">
-        <v>93.760174</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+        <v>1955.92</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>230</v>
       </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>231</v>
+      </c>
       <c r="B116" s="0" t="n">
-        <v>93.778443</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+        <v>1.95592</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="B117" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="0" t="n">
-        <v>2.430602</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="0" t="n">
-        <v>0.00243</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="0" t="n">
-        <v>2.577179</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" s="0" t="n">
-        <v>1955.92</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="0" t="n">
-        <v>1.95592</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff頁 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>